--- a/src/datasets/pglib_opf_case39_epri.xlsx
+++ b/src/datasets/pglib_opf_case39_epri.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\Desktop\IEEE Datasets Julia\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\.julia\packages\PowerGrids\src\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0672F2-3B77-4C14-8DE2-12C896ABE94C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68796A1E-62D0-4901-9474-4158B8272D69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="465" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="5" r:id="rId1"/>
     <sheet name="gen" sheetId="2" r:id="rId2"/>
     <sheet name="gencost" sheetId="3" r:id="rId3"/>
     <sheet name="branch" sheetId="4" r:id="rId4"/>
+    <sheet name="global" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>bus_i</t>
   </si>
@@ -155,6 +156,32 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>baseMVA</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{osti_5984031,
+title = {On-line stability analysis study, RP 90-1},
+author = {Bills, G.W.},
+abstractNote = {The results of an investigation of methods which might be employed for the on-line stability analysis of electric power systems are presented. On-line analysis in this instance does not refer to real-time or faster than real-time analysis, but to the analysis of data supplied primarily from the electric power system by continuous or periodic sensing of state variables. On-line stability analysis will enable the power system dispatcher to be appraised quickly of potentially unstable conditions by utilizing a preselected set of system contingencies and disturbances based on the existing power network configuration and loading. He can then quickly make decisions concerning possible system changes, such as in scheduling generator loading, line or bus switching, equipment shutdowns, etc. Modern control theory techniques, such as the use of Liapunov functions, pattern recognition, and perturbation, were tried and the results of this research are described. Communication rates needed for data to be supplied the On-Line Stability Analysis Program via the state estimator were investigated. The system state estimator and the software package required for on-line stability analysis are discussed, and the use of computer driven CRT's for displaying results is recommended. A follow-on effort for implementing on-line stability analysis is proposed.},
+doi = {},
+journal = {},
+number = ,
+volume = ,
+place = {United States},
+year = {1970},
+month = {10}
+}</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +225,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3052,7 +3085,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E21" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
@@ -4991,4 +5024,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF8DDD2-4E78-4C42-952D-DF7BACF3BB88}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="82.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="399" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>